--- a/Online-INDB/Dynamic_Validation_Rule/Dynamic_Rule_creation.xlsx
+++ b/Online-INDB/Dynamic_Validation_Rule/Dynamic_Rule_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbhinavDixit\PycharmProjects\Skat-eIncomes\Online-INDB\Dynamic_Validation_Rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E201F-CB29-45A2-97B8-5BC870B880AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C97A4E-C47C-4794-B1BB-B49E507A5B26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0053E76-9AAF-4EEB-9540-A6EC56672858}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
   <si>
     <t>Fejlnr</t>
   </si>
@@ -383,9 +383,6 @@
     <t>value="6001.249</t>
   </si>
   <si>
-    <t>6001.14</t>
-  </si>
-  <si>
     <t>Condition_Value</t>
   </si>
   <si>
@@ -393,13 +390,19 @@
   </si>
   <si>
     <t>013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//option[@value="="] </t>
+  </si>
+  <si>
+    <t>014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +414,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.3"/>
+      <color rgb="FF008080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -466,6 +477,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,7 +800,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,8 +810,8 @@
     <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
@@ -827,7 +841,7 @@
         <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>80</v>
@@ -836,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -851,16 +865,16 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J2">
         <v>300</v>
@@ -889,10 +903,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9">
+      <c r="A1" s="10">
         <v>6001</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="3" t="s">
         <v>50</v>
       </c>
